--- a/data/vehicle_stock/pkm.xlsx
+++ b/data/vehicle_stock/pkm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\osemobility\data\vehicle_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D443C13A-1ACC-44EE-98C6-CE030469672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540C3C1-DEAC-4BB0-B52A-1E672FD031AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11333" xr2:uid="{75B1F1C6-4D86-458F-8D51-B376B1161D2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>TRAIN_PKM</t>
+  </si>
+  <si>
+    <t>TRUCK_TKM</t>
+  </si>
+  <si>
+    <t>TRAIN_TKM</t>
+  </si>
+  <si>
+    <t>SHIP_TKM</t>
+  </si>
+  <si>
+    <t>PLANE_TKM</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78548CDC-D124-42B8-A4FC-7D46A4F3BFD6}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -442,7 +454,7 @@
     <col min="7" max="7" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,185 +476,1277 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2018</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2023</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2024</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2025</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2026</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2027</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2028</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2029</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2030</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2031</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2032</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2033</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2034</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2035</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2036</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2037</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2038</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2039</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2040</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2041</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2042</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2043</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2044</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2045</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2046</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2047</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2048</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2049</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2050</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
